--- a/sample_scores.xlsx
+++ b/sample_scores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derrick/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\python work files\excel searching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6F784B4-8A1C-D84D-9F0E-93C610C75C22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2756CEBC-7EDA-4792-B5C4-8C483A6AB322}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{A4CB960E-6934-234D-B068-B13526EB200C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{A4CB960E-6934-234D-B068-B13526EB200C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -453,13 +444,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0328B71A-874D-F342-8F09-4A766CB8F3F2}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -481,7 +472,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -492,7 +483,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -503,7 +494,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -514,7 +505,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -525,7 +516,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -536,7 +527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -547,7 +538,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -558,7 +549,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -569,7 +560,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -580,7 +571,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -591,18 +582,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C13">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -613,7 +604,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -624,7 +615,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -635,7 +626,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -646,7 +637,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -657,18 +648,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C19">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
